--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itga4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H2">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.01477605833688889</v>
+        <v>0.7759801302093333</v>
       </c>
       <c r="R2">
-        <v>0.132984525032</v>
+        <v>6.983821171884</v>
       </c>
       <c r="S2">
-        <v>1.900060764840164E-05</v>
+        <v>0.001362021428151355</v>
       </c>
       <c r="T2">
-        <v>1.900060764840164E-05</v>
+        <v>0.001362021428151355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H3">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.006781001606222222</v>
+        <v>0.03119207135511111</v>
       </c>
       <c r="R3">
-        <v>0.061029014456</v>
+        <v>0.280728642196</v>
       </c>
       <c r="S3">
-        <v>8.719724032311708E-06</v>
+        <v>5.474917194416638E-05</v>
       </c>
       <c r="T3">
-        <v>8.719724032311706E-06</v>
+        <v>5.474917194416638E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H4">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>9.304999516372002</v>
+        <v>39.70407956443744</v>
       </c>
       <c r="R4">
-        <v>83.74499564734801</v>
+        <v>357.336716079937</v>
       </c>
       <c r="S4">
-        <v>0.01196534562521069</v>
+        <v>0.06968968024632505</v>
       </c>
       <c r="T4">
-        <v>0.01196534562521069</v>
+        <v>0.06968968024632505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H5">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>0.2485095024895556</v>
+        <v>0.5648424250709999</v>
       </c>
       <c r="R5">
-        <v>2.236585522406</v>
+        <v>5.083581825639</v>
       </c>
       <c r="S5">
-        <v>0.0003195596177307542</v>
+        <v>0.0009914267859772897</v>
       </c>
       <c r="T5">
-        <v>0.0003195596177307542</v>
+        <v>0.0009914267859772897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H6">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I6">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J6">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>9.677185669213777</v>
+        <v>54.83148027979556</v>
       </c>
       <c r="R6">
-        <v>87.094671022924</v>
+        <v>493.48332251816</v>
       </c>
       <c r="S6">
-        <v>0.01244394166896478</v>
+        <v>0.09624170538773127</v>
       </c>
       <c r="T6">
-        <v>0.01244394166896478</v>
+        <v>0.09624170538773127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H7">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I7">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J7">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>12.55122060413867</v>
+        <v>16.37691388140033</v>
       </c>
       <c r="R7">
-        <v>112.960985437248</v>
+        <v>147.392224932603</v>
       </c>
       <c r="S7">
-        <v>0.01613967763056259</v>
+        <v>0.02874520463228782</v>
       </c>
       <c r="T7">
-        <v>0.01613967763056259</v>
+        <v>0.02874520463228782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,43 +918,43 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J8">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>0.2460547894355556</v>
+        <v>2.809140481826667</v>
       </c>
       <c r="R8">
-        <v>2.21449310492</v>
+        <v>25.28226433644</v>
       </c>
       <c r="S8">
-        <v>0.0003164030898824564</v>
+        <v>0.004930679771276086</v>
       </c>
       <c r="T8">
-        <v>0.0003164030898824563</v>
+        <v>0.004930679771276086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J9">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>0.1129190129288889</v>
@@ -1013,10 +1013,10 @@
         <v>1.01627111636</v>
       </c>
       <c r="S9">
-        <v>0.0001452031260156999</v>
+        <v>0.0001981985224458737</v>
       </c>
       <c r="T9">
-        <v>0.0001452031260156999</v>
+        <v>0.0001981985224458737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H10">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I10">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J10">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>154.94928650782</v>
+        <v>143.7334963306856</v>
       </c>
       <c r="R10">
-        <v>1394.54357857038</v>
+        <v>1293.60146697617</v>
       </c>
       <c r="S10">
-        <v>0.1992500659654781</v>
+        <v>0.2522849417454752</v>
       </c>
       <c r="T10">
-        <v>0.199250065965478</v>
+        <v>0.2522849417454752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H11">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I11">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J11">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>4.138245255512222</v>
+        <v>2.04479684511</v>
       </c>
       <c r="R11">
-        <v>37.24420729961</v>
+        <v>18.40317160599</v>
       </c>
       <c r="S11">
-        <v>0.005321390364069366</v>
+        <v>0.003589083032969919</v>
       </c>
       <c r="T11">
-        <v>0.005321390364069365</v>
+        <v>0.003589083032969919</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H12">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I12">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J12">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>161.1470277037711</v>
+        <v>198.4964884228445</v>
       </c>
       <c r="R12">
-        <v>1450.32324933394</v>
+        <v>1786.4683958056</v>
       </c>
       <c r="S12">
-        <v>0.2072197725059977</v>
+        <v>0.3484064348036572</v>
       </c>
       <c r="T12">
-        <v>0.2072197725059976</v>
+        <v>0.3484064348036572</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H13">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I13">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J13">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>209.0062094029867</v>
+        <v>59.28637855613667</v>
       </c>
       <c r="R13">
-        <v>1881.05588462688</v>
+        <v>533.57740700523</v>
       </c>
       <c r="S13">
-        <v>0.2687621346913263</v>
+        <v>0.104061063998079</v>
       </c>
       <c r="T13">
-        <v>0.2687621346913261</v>
+        <v>0.104061063998079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H14">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I14">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J14">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>0.00513494340311111</v>
+        <v>0.1180766054053333</v>
       </c>
       <c r="R14">
-        <v>0.04621449062799999</v>
+        <v>1.062689448648</v>
       </c>
       <c r="S14">
-        <v>6.6030495193487E-06</v>
+        <v>0.0002072512690267617</v>
       </c>
       <c r="T14">
-        <v>6.603049519348699E-06</v>
+        <v>0.0002072512690267617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H15">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I15">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J15">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.002356518813777778</v>
+        <v>0.004746325012444444</v>
       </c>
       <c r="R15">
-        <v>0.021208669324</v>
+        <v>0.042716925112</v>
       </c>
       <c r="S15">
-        <v>3.030259381481021E-06</v>
+        <v>8.330878743217496E-06</v>
       </c>
       <c r="T15">
-        <v>3.030259381481021E-06</v>
+        <v>8.330878743217496E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H16">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I16">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J16">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>3.233653034738</v>
+        <v>6.041550232023777</v>
       </c>
       <c r="R16">
-        <v>29.102877312642</v>
+        <v>54.37395208821399</v>
       </c>
       <c r="S16">
-        <v>0.004158170682822072</v>
+        <v>0.01060429327365553</v>
       </c>
       <c r="T16">
-        <v>0.004158170682822071</v>
+        <v>0.01060429327365553</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H17">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I17">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J17">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>0.08636147755544443</v>
+        <v>0.08594894836199997</v>
       </c>
       <c r="R17">
-        <v>0.7772532979989999</v>
+        <v>0.7735405352579998</v>
       </c>
       <c r="S17">
-        <v>0.0001110526578573824</v>
+        <v>0.0001508599316383762</v>
       </c>
       <c r="T17">
-        <v>0.0001110526578573824</v>
+        <v>0.0001508599316383762</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H18">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I18">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J18">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>3.362994350716221</v>
+        <v>8.343403147502222</v>
       </c>
       <c r="R18">
-        <v>30.26694915644599</v>
+        <v>75.09062832751999</v>
       </c>
       <c r="S18">
-        <v>0.004324491330832425</v>
+        <v>0.01464456811225036</v>
       </c>
       <c r="T18">
-        <v>0.004324491330832423</v>
+        <v>0.01464456811225036</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H19">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I19">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J19">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>4.361772671221333</v>
+        <v>2.491984424407333</v>
       </c>
       <c r="R19">
-        <v>39.25595404099199</v>
+        <v>22.427859819666</v>
       </c>
       <c r="S19">
-        <v>0.00560882539090239</v>
+        <v>0.004373998833896152</v>
       </c>
       <c r="T19">
-        <v>0.005608825390902388</v>
+        <v>0.004373998833896152</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H20">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I20">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J20">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>0.08151293108355555</v>
+        <v>0.09837887522933335</v>
       </c>
       <c r="R20">
-        <v>0.733616379752</v>
+        <v>0.8854098770640001</v>
       </c>
       <c r="S20">
-        <v>0.0001048178875907133</v>
+        <v>0.0001726772773210488</v>
       </c>
       <c r="T20">
-        <v>0.0001048178875907133</v>
+        <v>0.0001726772773210488</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H21">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I21">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J21">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.03740776491288889</v>
+        <v>0.003954535401777778</v>
       </c>
       <c r="R21">
-        <v>0.336669884216</v>
+        <v>0.035590818616</v>
       </c>
       <c r="S21">
-        <v>4.81028328332318E-05</v>
+        <v>6.941108085011735E-06</v>
       </c>
       <c r="T21">
-        <v>4.81028328332318E-05</v>
+        <v>6.941108085011735E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H22">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I22">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J22">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>51.331536937492</v>
+        <v>5.033689056589112</v>
       </c>
       <c r="R22">
-        <v>461.983832437428</v>
+        <v>45.303201509302</v>
       </c>
       <c r="S22">
-        <v>0.06600748123088955</v>
+        <v>0.008835267928672133</v>
       </c>
       <c r="T22">
-        <v>0.06600748123088952</v>
+        <v>0.008835267928672133</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H23">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I23">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J23">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>1.370916213796222</v>
+        <v>0.07161080586599999</v>
       </c>
       <c r="R23">
-        <v>12.338245924166</v>
+        <v>0.6444972527939999</v>
       </c>
       <c r="S23">
-        <v>0.001762868046625404</v>
+        <v>0.0001256932339883071</v>
       </c>
       <c r="T23">
-        <v>0.001762868046625403</v>
+        <v>0.0001256932339883071</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H24">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I24">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J24">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>53.3847221331071</v>
+        <v>6.95154314792889</v>
       </c>
       <c r="R24">
-        <v>480.462499197964</v>
+        <v>62.56388833136</v>
       </c>
       <c r="S24">
-        <v>0.06864768238886651</v>
+        <v>0.01220153758788087</v>
       </c>
       <c r="T24">
-        <v>0.0686476823888665</v>
+        <v>0.01220153758788087</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H25">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I25">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J25">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>69.23949248125868</v>
+        <v>2.076267554615333</v>
       </c>
       <c r="R25">
-        <v>623.155432331328</v>
+        <v>18.686407991538</v>
       </c>
       <c r="S25">
-        <v>0.08903541123185975</v>
+        <v>0.003644321278173219</v>
       </c>
       <c r="T25">
-        <v>0.08903541123185972</v>
+        <v>0.003644321278173219</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H26">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I26">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J26">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>0.01382727007244444</v>
+        <v>0.13571475282</v>
       </c>
       <c r="R26">
-        <v>0.124445430652</v>
+        <v>1.22143277538</v>
       </c>
       <c r="S26">
-        <v>1.778055605256364E-05</v>
+        <v>0.0002382102250572308</v>
       </c>
       <c r="T26">
-        <v>1.778055605256363E-05</v>
+        <v>0.0002382102250572308</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H27">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I27">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J27">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>0.006345585435111111</v>
+        <v>0.00545532558</v>
       </c>
       <c r="R27">
-        <v>0.057110268916</v>
+        <v>0.04909793022</v>
       </c>
       <c r="S27">
-        <v>8.159820190405689E-06</v>
+        <v>9.575335821418239E-06</v>
       </c>
       <c r="T27">
-        <v>8.159820190405687E-06</v>
+        <v>9.575335821418239E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H28">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I28">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J28">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>8.707514440142003</v>
+        <v>6.944030052134999</v>
       </c>
       <c r="R28">
-        <v>78.36762996127801</v>
+        <v>62.49627046921499</v>
       </c>
       <c r="S28">
-        <v>0.01119703656399919</v>
+        <v>0.01218835039781677</v>
       </c>
       <c r="T28">
-        <v>0.01119703656399918</v>
+        <v>0.01218835039781677</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H29">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I29">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J29">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>0.2325524120267778</v>
+        <v>0.09878790334499998</v>
       </c>
       <c r="R29">
-        <v>2.092971708241</v>
+        <v>0.8890911301049998</v>
       </c>
       <c r="S29">
-        <v>0.0002990403149383201</v>
+        <v>0.0001733952145936231</v>
       </c>
       <c r="T29">
-        <v>0.0002990403149383201</v>
+        <v>0.0001733952145936231</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H30">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I30">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J30">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>9.055802077834889</v>
+        <v>9.5897311068</v>
       </c>
       <c r="R30">
-        <v>81.50221870051399</v>
+        <v>86.30757996119999</v>
       </c>
       <c r="S30">
-        <v>0.01164490138706029</v>
+        <v>0.01683215684162903</v>
       </c>
       <c r="T30">
-        <v>0.01164490138706028</v>
+        <v>0.01683215684162902</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1428456666666667</v>
+        <v>0.122805</v>
       </c>
       <c r="H31">
-        <v>0.428537</v>
+        <v>0.368415</v>
       </c>
       <c r="I31">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="J31">
-        <v>0.03827024839310091</v>
+        <v>0.03446906976034867</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>11.74529181432534</v>
+        <v>2.864234189565</v>
       </c>
       <c r="R31">
-        <v>105.707626328928</v>
+        <v>25.778107706085</v>
       </c>
       <c r="S31">
-        <v>0.01510332975086016</v>
+        <v>0.005027381745430597</v>
       </c>
       <c r="T31">
-        <v>0.01510332975086015</v>
+        <v>0.005027381745430597</v>
       </c>
     </row>
   </sheetData>
